--- a/Energy values.xlsx
+++ b/Energy values.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Солнечная панель</t>
   </si>
@@ -57,13 +57,28 @@
     <t>ESP8266</t>
   </si>
   <si>
-    <t>Холостое</t>
-  </si>
-  <si>
     <t>Рабочее</t>
   </si>
   <si>
     <t>Время работы</t>
+  </si>
+  <si>
+    <t>В сборе</t>
+  </si>
+  <si>
+    <t>80 мА</t>
+  </si>
+  <si>
+    <t>4 с</t>
+  </si>
+  <si>
+    <t>8 мА</t>
+  </si>
+  <si>
+    <t>Сон</t>
+  </si>
+  <si>
+    <t>Ожидаемое время работы без подзарядки при батарее 2А/ч = 10 дней</t>
   </si>
 </sst>
 </file>
@@ -111,7 +126,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -214,11 +229,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,6 +276,18 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,6 +295,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -539,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,6 +592,7 @@
     <col min="2" max="2" width="20.88671875" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" customWidth="1"/>
     <col min="4" max="4" width="19.88671875" customWidth="1"/>
+    <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -595,26 +639,25 @@
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" ht="19.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="19"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="10"/>
       <c r="B10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="D10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="12" t="s">
@@ -635,19 +678,27 @@
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="9"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>16</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -658,10 +709,12 @@
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="9"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -686,8 +739,9 @@
       <c r="E19" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
